--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2698973108211147</v>
+        <v>0.2899281983818995</v>
       </c>
       <c r="D2">
-        <v>0.2657510298983663</v>
+        <v>0.3666530656187619</v>
       </c>
       <c r="E2">
-        <v>0.8112769939226041</v>
+        <v>0.8129955704105249</v>
       </c>
       <c r="F2">
-        <v>0.7867214465748067</v>
+        <v>0.8030672424573058</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2698973108211147</v>
+        <v>0.2899281983818995</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7455599846244594</v>
+        <v>0.7970147502260116</v>
       </c>
       <c r="E3">
-        <v>0.2173483757730088</v>
+        <v>0.2486091604779133</v>
       </c>
       <c r="F3">
-        <v>0.249894115601442</v>
+        <v>0.3488216826859514</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2657510298983663</v>
+        <v>0.3666530656187619</v>
       </c>
       <c r="C4">
-        <v>0.7455599846244594</v>
+        <v>0.7970147502260116</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1762193069982214</v>
+        <v>0.2654646117753956</v>
       </c>
       <c r="F4">
-        <v>0.1799597898636762</v>
+        <v>0.1588276240389643</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8112769939226041</v>
+        <v>0.8129955704105249</v>
       </c>
       <c r="C5">
-        <v>0.2173483757730088</v>
+        <v>0.2486091604779133</v>
       </c>
       <c r="D5">
-        <v>0.1762193069982214</v>
+        <v>0.2654646117753956</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6188444678011824</v>
+        <v>0.6754291076950425</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7867214465748067</v>
+        <v>0.8030672424573058</v>
       </c>
       <c r="C6">
-        <v>0.249894115601442</v>
+        <v>0.3488216826859514</v>
       </c>
       <c r="D6">
-        <v>0.1799597898636762</v>
+        <v>0.1588276240389643</v>
       </c>
       <c r="E6">
-        <v>0.6188444678011824</v>
+        <v>0.6754291076950425</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.104577346984868</v>
+        <v>1.099903333524128</v>
       </c>
       <c r="D2">
-        <v>1.114202608317568</v>
+        <v>0.9329590579627471</v>
       </c>
       <c r="E2">
-        <v>-0.2389107212533267</v>
+        <v>-0.2410700623706254</v>
       </c>
       <c r="F2">
-        <v>0.2707220289730284</v>
+        <v>0.25415951958384</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.104577346984868</v>
+        <v>-1.099903333524128</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3246866557470994</v>
+        <v>0.2621617886823465</v>
       </c>
       <c r="E3">
-        <v>-1.235235532020676</v>
+        <v>-1.203847019887192</v>
       </c>
       <c r="F3">
-        <v>-1.15200388280813</v>
+        <v>-0.9693468040957722</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.114202608317568</v>
+        <v>-0.9329590579627471</v>
       </c>
       <c r="C4">
-        <v>-0.3246866557470994</v>
+        <v>-0.2621617886823465</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.354487973531751</v>
+        <v>-1.159961669520672</v>
       </c>
       <c r="F4">
-        <v>-1.342839871908365</v>
+        <v>-1.488379851961763</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2389107212533267</v>
+        <v>0.2410700623706254</v>
       </c>
       <c r="C5">
-        <v>1.235235532020676</v>
+        <v>1.203847019887192</v>
       </c>
       <c r="D5">
-        <v>1.354487973531751</v>
+        <v>1.159961669520672</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4978127780916348</v>
+        <v>0.4276243293568978</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2707220289730284</v>
+        <v>-0.25415951958384</v>
       </c>
       <c r="C6">
-        <v>1.15200388280813</v>
+        <v>0.9693468040957722</v>
       </c>
       <c r="D6">
-        <v>1.342839871908365</v>
+        <v>1.488379851961763</v>
       </c>
       <c r="E6">
-        <v>-0.4978127780916348</v>
+        <v>-0.4276243293568978</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2899281983818995</v>
+        <v>0.06052679181778808</v>
       </c>
       <c r="D2">
-        <v>0.3666530656187619</v>
+        <v>0.9901131559509733</v>
       </c>
       <c r="E2">
-        <v>0.8129955704105249</v>
+        <v>0.886982440738378</v>
       </c>
       <c r="F2">
-        <v>0.8030672424573058</v>
+        <v>0.6896194984156181</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2899281983818995</v>
+        <v>0.06052679181778808</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7970147502260116</v>
+        <v>0.01443586151100429</v>
       </c>
       <c r="E3">
-        <v>0.2486091604779133</v>
+        <v>0.007295176785871993</v>
       </c>
       <c r="F3">
-        <v>0.3488216826859514</v>
+        <v>0.03379314410679202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3666530656187619</v>
+        <v>0.9901131559509733</v>
       </c>
       <c r="C4">
-        <v>0.7970147502260116</v>
+        <v>0.01443586151100429</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2654646117753956</v>
+        <v>0.8748315646974563</v>
       </c>
       <c r="F4">
-        <v>0.1588276240389643</v>
+        <v>0.6397642229134952</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8129955704105249</v>
+        <v>0.886982440738378</v>
       </c>
       <c r="C5">
-        <v>0.2486091604779133</v>
+        <v>0.007295176785871993</v>
       </c>
       <c r="D5">
-        <v>0.2654646117753956</v>
+        <v>0.8748315646974563</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6754291076950425</v>
+        <v>0.5791515551846032</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8030672424573058</v>
+        <v>0.6896194984156181</v>
       </c>
       <c r="C6">
-        <v>0.3488216826859514</v>
+        <v>0.03379314410679202</v>
       </c>
       <c r="D6">
-        <v>0.1588276240389643</v>
+        <v>0.6397642229134952</v>
       </c>
       <c r="E6">
-        <v>0.6754291076950425</v>
+        <v>0.5791515551846032</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.099903333524128</v>
+        <v>1.978503407990061</v>
       </c>
       <c r="D2">
-        <v>0.9329590579627471</v>
+        <v>0.01253322909703981</v>
       </c>
       <c r="E2">
-        <v>-0.2410700623706254</v>
+        <v>0.1437808388721875</v>
       </c>
       <c r="F2">
-        <v>0.25415951958384</v>
+        <v>0.4046812950494779</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.099903333524128</v>
+        <v>-1.978503407990061</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2621617886823465</v>
+        <v>-2.655878130185574</v>
       </c>
       <c r="E3">
-        <v>-1.203847019887192</v>
+        <v>-2.956347351784382</v>
       </c>
       <c r="F3">
-        <v>-0.9693468040957722</v>
+        <v>-2.263766172150749</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.9329590579627471</v>
+        <v>-0.01253322909703981</v>
       </c>
       <c r="C4">
-        <v>-0.2621617886823465</v>
+        <v>2.655878130185574</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.159961669520672</v>
+        <v>0.1593698474980721</v>
       </c>
       <c r="F4">
-        <v>-1.488379851961763</v>
+        <v>0.474578740891246</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2410700623706254</v>
+        <v>-0.1437808388721875</v>
       </c>
       <c r="C5">
-        <v>1.203847019887192</v>
+        <v>2.956347351784382</v>
       </c>
       <c r="D5">
-        <v>1.159961669520672</v>
+        <v>-0.1593698474980721</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4276243293568978</v>
+        <v>0.5629648337989479</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.25415951958384</v>
+        <v>-0.4046812950494779</v>
       </c>
       <c r="C6">
-        <v>0.9693468040957722</v>
+        <v>2.263766172150749</v>
       </c>
       <c r="D6">
-        <v>1.488379851961763</v>
+        <v>-0.474578740891246</v>
       </c>
       <c r="E6">
-        <v>-0.4276243293568978</v>
+        <v>-0.5629648337989479</v>
       </c>
       <c r="F6">
         <v>0</v>
